--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1409,6 +1409,26 @@
         <v>1.96</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.406</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.562</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.649</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1429,6 +1429,26 @@
         <v>1.657</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.467</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.371</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -17,13 +17,13 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy</t>
+    <t xml:space="preserve">NEIG</t>
   </si>
   <si>
     <t xml:space="preserve">Food</t>
   </si>
   <si>
-    <t xml:space="preserve">NEIG</t>
+    <t xml:space="preserve">Energy</t>
   </si>
   <si>
     <t xml:space="preserve">Rent</t>
@@ -1449,6 +1449,26 @@
         <v>1.888</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.455</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.574</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1469,6 +1469,26 @@
         <v>1.655</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.376</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.586</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -36,9 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -75,7 +73,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,6 +1487,26 @@
         <v>1.698</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.439</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.979</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.737</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1507,6 +1507,26 @@
         <v>1.737</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.526</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.506</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1527,6 +1527,26 @@
         <v>1.316</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.458</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-1.428</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1547,6 +1547,26 @@
         <v>1.211</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.483</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.788</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1567,6 +1567,26 @@
         <v>1.04</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.596</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -389,1202 +389,782 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43831</v>
+        <v>44562</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.196</v>
+        <v>0.483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.064</v>
+        <v>0.859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.493</v>
+        <v>2.336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.294</v>
+        <v>0.657</v>
       </c>
       <c r="F2" t="n">
-        <v>0.468</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43862</v>
+        <v>44593</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.237</v>
+        <v>0.853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.051</v>
+        <v>0.919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.318</v>
+        <v>2.429</v>
       </c>
       <c r="E3" t="n">
-        <v>0.291</v>
+        <v>0.709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.493</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>43891</v>
+        <v>44621</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.23</v>
+        <v>0.628</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03</v>
+        <v>0.838</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001</v>
+        <v>3.527</v>
       </c>
       <c r="E4" t="n">
-        <v>0.24</v>
+        <v>0.705</v>
       </c>
       <c r="F4" t="n">
-        <v>0.479</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43922</v>
+        <v>44652</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.411</v>
+        <v>0.809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.057</v>
+        <v>0.76</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.572</v>
+        <v>3.175</v>
       </c>
       <c r="E5" t="n">
-        <v>0.109</v>
+        <v>0.702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.49</v>
+        <v>1.828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43952</v>
+        <v>44682</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.419</v>
+        <v>0.999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.022</v>
+        <v>1.031</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.904</v>
+        <v>3.769</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0.828</v>
       </c>
       <c r="F6" t="n">
-        <v>0.479</v>
+        <v>1.559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43983</v>
+        <v>44713</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.49</v>
+        <v>1.093</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.057</v>
+        <v>1.36</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.753</v>
+        <v>4.404</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.018</v>
+        <v>0.932</v>
       </c>
       <c r="F7" t="n">
-        <v>0.664</v>
+        <v>1.742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44013</v>
+        <v>44743</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.02</v>
+        <v>1.097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.026</v>
+        <v>1.456</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.511</v>
+        <v>3.986</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.035</v>
+        <v>0.993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.025</v>
+        <v>2.096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44044</v>
+        <v>44774</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.371</v>
+        <v>1.131</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.057</v>
+        <v>1.59</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.504</v>
+        <v>3.373</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.063</v>
+        <v>0.986</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.047</v>
+        <v>1.971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44075</v>
+        <v>44805</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5</v>
+        <v>1.136</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.118</v>
+        <v>1.654</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.562</v>
+        <v>3.239</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.123</v>
+        <v>0.828</v>
       </c>
       <c r="F10" t="n">
-        <v>0.177</v>
+        <v>1.677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44105</v>
+        <v>44835</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.543</v>
+        <v>1.151</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.135</v>
+        <v>1.824</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.553</v>
+        <v>4.2</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.165</v>
+        <v>0.789</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09</v>
+        <v>1.387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44136</v>
+        <v>44866</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6</v>
+        <v>1.042</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.103</v>
+        <v>1.91</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.489</v>
+        <v>3.864</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.166</v>
+        <v>0.776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.324</v>
+        <v>1.307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44166</v>
+        <v>44896</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.767</v>
+        <v>0.976</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.151</v>
+        <v>2.077</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.674</v>
+        <v>3.056</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.155</v>
+        <v>0.769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.778</v>
+        <v>1.264</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.313</v>
+        <v>1.135</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.182</v>
+        <v>1.749</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.635</v>
+        <v>2.988</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.13</v>
+        <v>0.754</v>
       </c>
       <c r="F14" t="n">
-        <v>1.142</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44228</v>
+        <v>44958</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.566</v>
+        <v>1.169</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.132</v>
+        <v>1.862</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.343</v>
+        <v>2.687</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.132</v>
+        <v>0.76</v>
       </c>
       <c r="F15" t="n">
-        <v>0.779</v>
+        <v>1.567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44256</v>
+        <v>44986</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.385</v>
+        <v>1.276</v>
       </c>
       <c r="C16" t="n">
-        <v>0.091</v>
+        <v>1.843</v>
       </c>
       <c r="D16" t="n">
-        <v>0.129</v>
+        <v>1.203</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.045</v>
+        <v>0.728</v>
       </c>
       <c r="F16" t="n">
-        <v>0.314</v>
+        <v>1.897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44287</v>
+        <v>45017</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.131</v>
+        <v>1.053</v>
       </c>
       <c r="C17" t="n">
-        <v>0.146</v>
+        <v>1.888</v>
       </c>
       <c r="D17" t="n">
-        <v>0.656</v>
+        <v>1.232</v>
       </c>
       <c r="E17" t="n">
-        <v>0.149</v>
+        <v>0.649</v>
       </c>
       <c r="F17" t="n">
-        <v>0.333</v>
+        <v>1.361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44317</v>
+        <v>45047</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.049</v>
+        <v>0.898</v>
       </c>
       <c r="C18" t="n">
-        <v>0.082</v>
+        <v>1.756</v>
       </c>
       <c r="D18" t="n">
-        <v>0.969</v>
+        <v>0.236</v>
       </c>
       <c r="E18" t="n">
-        <v>0.199</v>
+        <v>0.587</v>
       </c>
       <c r="F18" t="n">
-        <v>0.704</v>
+        <v>1.906</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44348</v>
+        <v>45078</v>
       </c>
       <c r="B19" t="n">
-        <v>0.056</v>
+        <v>0.852</v>
       </c>
       <c r="C19" t="n">
-        <v>0.145</v>
+        <v>1.445</v>
       </c>
       <c r="D19" t="n">
-        <v>0.954</v>
+        <v>-0.314</v>
       </c>
       <c r="E19" t="n">
-        <v>0.164</v>
+        <v>0.569</v>
       </c>
       <c r="F19" t="n">
-        <v>0.295</v>
+        <v>2.284</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44378</v>
+        <v>45108</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.248</v>
+        <v>0.536</v>
       </c>
       <c r="C20" t="n">
-        <v>0.192</v>
+        <v>1.286</v>
       </c>
       <c r="D20" t="n">
-        <v>1.06</v>
+        <v>-0.12</v>
       </c>
       <c r="E20" t="n">
-        <v>0.167</v>
+        <v>0.545</v>
       </c>
       <c r="F20" t="n">
-        <v>0.898</v>
+        <v>2.249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44409</v>
+        <v>45139</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.029</v>
+        <v>0.636</v>
       </c>
       <c r="C21" t="n">
-        <v>0.246</v>
+        <v>1.188</v>
       </c>
       <c r="D21" t="n">
-        <v>1.301</v>
+        <v>0.544</v>
       </c>
       <c r="E21" t="n">
-        <v>0.273</v>
+        <v>0.535</v>
       </c>
       <c r="F21" t="n">
-        <v>1.152</v>
+        <v>2.002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44440</v>
+        <v>45170</v>
       </c>
       <c r="B22" t="n">
-        <v>0.279</v>
+        <v>0.525</v>
       </c>
       <c r="C22" t="n">
-        <v>0.413</v>
+        <v>1.161</v>
       </c>
       <c r="D22" t="n">
-        <v>1.479</v>
+        <v>0.961</v>
       </c>
       <c r="E22" t="n">
-        <v>0.467</v>
+        <v>0.579</v>
       </c>
       <c r="F22" t="n">
-        <v>1.091</v>
+        <v>1.806</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44470</v>
+        <v>45200</v>
       </c>
       <c r="B23" t="n">
-        <v>0.444</v>
+        <v>0.462</v>
       </c>
       <c r="C23" t="n">
-        <v>0.429</v>
+        <v>1.04</v>
       </c>
       <c r="D23" t="n">
-        <v>1.974</v>
+        <v>-0.514</v>
       </c>
       <c r="E23" t="n">
-        <v>0.573</v>
+        <v>0.539</v>
       </c>
       <c r="F23" t="n">
-        <v>1.667</v>
+        <v>2.077</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44501</v>
+        <v>45231</v>
       </c>
       <c r="B24" t="n">
-        <v>0.61</v>
+        <v>0.312</v>
       </c>
       <c r="C24" t="n">
-        <v>0.392</v>
+        <v>1.023</v>
       </c>
       <c r="D24" t="n">
-        <v>2.305</v>
+        <v>-1.181</v>
       </c>
       <c r="E24" t="n">
-        <v>0.617</v>
+        <v>0.516</v>
       </c>
       <c r="F24" t="n">
-        <v>1.503</v>
+        <v>1.794</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44531</v>
+        <v>45261</v>
       </c>
       <c r="B25" t="n">
-        <v>0.993</v>
+        <v>0.413</v>
       </c>
       <c r="C25" t="n">
-        <v>0.387</v>
+        <v>0.904</v>
       </c>
       <c r="D25" t="n">
-        <v>2.408</v>
+        <v>-0.674</v>
       </c>
       <c r="E25" t="n">
-        <v>0.654</v>
+        <v>0.529</v>
       </c>
       <c r="F25" t="n">
-        <v>1.194</v>
+        <v>2.025</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44562</v>
+        <v>45292</v>
       </c>
       <c r="B26" t="n">
-        <v>0.483</v>
+        <v>0.087</v>
       </c>
       <c r="C26" t="n">
-        <v>0.859</v>
+        <v>0.778</v>
       </c>
       <c r="D26" t="n">
-        <v>2.336</v>
+        <v>-0.752</v>
       </c>
       <c r="E26" t="n">
-        <v>0.657</v>
+        <v>0.528</v>
       </c>
       <c r="F26" t="n">
-        <v>0.733</v>
+        <v>2.111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44593</v>
+        <v>45323</v>
       </c>
       <c r="B27" t="n">
-        <v>0.853</v>
+        <v>-0.106</v>
       </c>
       <c r="C27" t="n">
-        <v>0.919</v>
+        <v>0.651</v>
       </c>
       <c r="D27" t="n">
-        <v>2.429</v>
+        <v>-0.658</v>
       </c>
       <c r="E27" t="n">
-        <v>0.709</v>
+        <v>0.478</v>
       </c>
       <c r="F27" t="n">
-        <v>0.824</v>
+        <v>1.943</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44621</v>
+        <v>45352</v>
       </c>
       <c r="B28" t="n">
-        <v>0.628</v>
+        <v>-0.368</v>
       </c>
       <c r="C28" t="n">
-        <v>0.838</v>
+        <v>0.501</v>
       </c>
       <c r="D28" t="n">
-        <v>3.527</v>
+        <v>-0.882</v>
       </c>
       <c r="E28" t="n">
-        <v>0.705</v>
+        <v>0.443</v>
       </c>
       <c r="F28" t="n">
-        <v>1.282</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44652</v>
+        <v>45383</v>
       </c>
       <c r="B29" t="n">
-        <v>0.809</v>
+        <v>-0.406</v>
       </c>
       <c r="C29" t="n">
-        <v>0.76</v>
+        <v>0.562</v>
       </c>
       <c r="D29" t="n">
-        <v>3.175</v>
+        <v>-0.649</v>
       </c>
       <c r="E29" t="n">
-        <v>0.702</v>
+        <v>0.436</v>
       </c>
       <c r="F29" t="n">
-        <v>1.828</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44682</v>
+        <v>45413</v>
       </c>
       <c r="B30" t="n">
-        <v>0.999</v>
+        <v>-0.467</v>
       </c>
       <c r="C30" t="n">
-        <v>1.031</v>
+        <v>0.47</v>
       </c>
       <c r="D30" t="n">
-        <v>3.769</v>
+        <v>-0.371</v>
       </c>
       <c r="E30" t="n">
-        <v>0.828</v>
+        <v>0.409</v>
       </c>
       <c r="F30" t="n">
-        <v>1.559</v>
+        <v>1.888</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44713</v>
+        <v>45444</v>
       </c>
       <c r="B31" t="n">
-        <v>1.093</v>
+        <v>-0.455</v>
       </c>
       <c r="C31" t="n">
-        <v>1.36</v>
+        <v>0.438</v>
       </c>
       <c r="D31" t="n">
-        <v>4.404</v>
+        <v>-0.574</v>
       </c>
       <c r="E31" t="n">
-        <v>0.932</v>
+        <v>0.432</v>
       </c>
       <c r="F31" t="n">
-        <v>1.742</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44743</v>
+        <v>45474</v>
       </c>
       <c r="B32" t="n">
-        <v>1.097</v>
+        <v>-0.376</v>
       </c>
       <c r="C32" t="n">
-        <v>1.456</v>
+        <v>0.41</v>
       </c>
       <c r="D32" t="n">
-        <v>3.986</v>
+        <v>-0.586</v>
       </c>
       <c r="E32" t="n">
-        <v>0.993</v>
+        <v>0.401</v>
       </c>
       <c r="F32" t="n">
-        <v>2.096</v>
+        <v>1.698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44774</v>
+        <v>45505</v>
       </c>
       <c r="B33" t="n">
-        <v>1.131</v>
+        <v>-0.439</v>
       </c>
       <c r="C33" t="n">
-        <v>1.59</v>
+        <v>0.422</v>
       </c>
       <c r="D33" t="n">
-        <v>3.373</v>
+        <v>-0.979</v>
       </c>
       <c r="E33" t="n">
-        <v>0.986</v>
+        <v>0.35</v>
       </c>
       <c r="F33" t="n">
-        <v>1.971</v>
+        <v>1.737</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44805</v>
+        <v>45536</v>
       </c>
       <c r="B34" t="n">
-        <v>1.136</v>
+        <v>-0.526</v>
       </c>
       <c r="C34" t="n">
-        <v>1.654</v>
+        <v>0.361</v>
       </c>
       <c r="D34" t="n">
-        <v>3.239</v>
+        <v>-1.506</v>
       </c>
       <c r="E34" t="n">
-        <v>0.828</v>
+        <v>0.347</v>
       </c>
       <c r="F34" t="n">
-        <v>1.677</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44835</v>
+        <v>45566</v>
       </c>
       <c r="B35" t="n">
-        <v>1.151</v>
+        <v>-0.458</v>
       </c>
       <c r="C35" t="n">
-        <v>1.824</v>
+        <v>0.462</v>
       </c>
       <c r="D35" t="n">
-        <v>4.2</v>
+        <v>-1.428</v>
       </c>
       <c r="E35" t="n">
-        <v>0.789</v>
+        <v>0.369</v>
       </c>
       <c r="F35" t="n">
-        <v>1.387</v>
+        <v>1.211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44866</v>
+        <v>45597</v>
       </c>
       <c r="B36" t="n">
-        <v>1.042</v>
+        <v>-0.483</v>
       </c>
       <c r="C36" t="n">
-        <v>1.91</v>
+        <v>0.376</v>
       </c>
       <c r="D36" t="n">
-        <v>3.864</v>
+        <v>-0.788</v>
       </c>
       <c r="E36" t="n">
-        <v>0.776</v>
+        <v>0.394</v>
       </c>
       <c r="F36" t="n">
-        <v>1.307</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44896</v>
+        <v>45627</v>
       </c>
       <c r="B37" t="n">
-        <v>0.976</v>
+        <v>-0.596</v>
       </c>
       <c r="C37" t="n">
-        <v>2.077</v>
+        <v>0.368</v>
       </c>
       <c r="D37" t="n">
-        <v>3.056</v>
+        <v>-0.472</v>
       </c>
       <c r="E37" t="n">
-        <v>0.769</v>
+        <v>0.388</v>
       </c>
       <c r="F37" t="n">
-        <v>1.264</v>
+        <v>1.307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44927</v>
+        <v>45658</v>
       </c>
       <c r="B38" t="n">
-        <v>1.135</v>
+        <v>-0.461</v>
       </c>
       <c r="C38" t="n">
-        <v>1.749</v>
+        <v>0.458</v>
       </c>
       <c r="D38" t="n">
-        <v>2.988</v>
+        <v>-0.272</v>
       </c>
       <c r="E38" t="n">
-        <v>0.754</v>
+        <v>0.397</v>
       </c>
       <c r="F38" t="n">
-        <v>0.854</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44958</v>
+        <v>45689</v>
       </c>
       <c r="B39" t="n">
-        <v>1.169</v>
+        <v>-0.391</v>
       </c>
       <c r="C39" t="n">
-        <v>1.862</v>
+        <v>0.442</v>
       </c>
       <c r="D39" t="n">
-        <v>2.687</v>
+        <v>-0.26</v>
       </c>
       <c r="E39" t="n">
-        <v>0.76</v>
+        <v>0.374</v>
       </c>
       <c r="F39" t="n">
-        <v>1.567</v>
+        <v>1.302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44986</v>
+        <v>45717</v>
       </c>
       <c r="B40" t="n">
-        <v>1.276</v>
+        <v>-0.096</v>
       </c>
       <c r="C40" t="n">
-        <v>1.843</v>
+        <v>0.561</v>
       </c>
       <c r="D40" t="n">
-        <v>1.203</v>
+        <v>-0.035</v>
       </c>
       <c r="E40" t="n">
-        <v>0.728</v>
+        <v>0.383</v>
       </c>
       <c r="F40" t="n">
-        <v>1.897</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.053</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.232</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.361</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.756</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.906</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.852</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.445</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-0.314</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.569</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2.284</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.286</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2.249</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.188</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.544</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2.002</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.161</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.961</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.806</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-0.514</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.077</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-1.181</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.794</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.904</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-0.674</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2.025</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-0.752</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.111</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.106</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-0.658</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.943</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.368</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.501</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-0.882</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.406</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-0.649</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.657</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45413</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.467</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-0.371</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1.888</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.455</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-0.574</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.655</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45474</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.376</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-0.586</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1.698</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.439</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.422</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-0.979</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1.737</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.526</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-1.506</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1.316</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.458</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-1.428</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.211</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.483</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-0.788</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.596</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.388</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1.307</v>
+        <v>0.974</v>
       </c>
     </row>
   </sheetData>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1167,6 +1167,46 @@
         <v>0.974</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.157</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.165</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.567</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.264</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.759</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1207,6 +1207,26 @@
         <v>0.759</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.093</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1227,6 +1227,46 @@
         <v>0.904</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.078</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Inflation_contributions_graph_data.xlsx
+++ b/Inflation_contributions_graph_data.xlsx
@@ -1267,6 +1267,66 @@
         <v>0.806</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.385</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.568</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
